--- a/Data/collapsed database manual cases/jalisco_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/jalisco_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/jalisco/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="8_{AEEDCDC8-3ED6-6C4E-BEDA-77050D971D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49440E48-EA12-F547-9422-9CFFE7FC8E44}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CCF144-523E-C648-A56F-97AA25FACED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10527" uniqueCount="1963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10737" uniqueCount="1999">
   <si>
     <t>uniqueid</t>
   </si>
@@ -5912,6 +5912,114 @@
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Municipio_de_San_Mart%C3%ADn_de_Bola%C3%B1os</t>
+  </si>
+  <si>
+    <t>PAN_PRD_MC</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL MEDRANO BARBA</t>
+  </si>
+  <si>
+    <t>JOSE CRUZ CARRILLO SOLIS</t>
+  </si>
+  <si>
+    <t>MANUEL VILLALOBOS ALVAREZ</t>
+  </si>
+  <si>
+    <t>JORGE ALONSO ARELLANO GANDARA</t>
+  </si>
+  <si>
+    <t>MONICA MARIN BUENROSTRO</t>
+  </si>
+  <si>
+    <t>ILIANA CRISTINA ESPARZA RIOS</t>
+  </si>
+  <si>
+    <t>ADAN ISRAEL MENDOZA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>YDALIA CHAVEZ CONTREAS</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL NU√ëEZ LOPEZ</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>RICARDO ZAID SANTILLAN CORTES</t>
+  </si>
+  <si>
+    <t>ALMA LIZZETTE DEL REFUGIO ANGEL CERRILLO</t>
+  </si>
+  <si>
+    <t>DAVID SANCHEZ DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>ALONSO DE JESUS VAZQUEZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>CESAR FORTINO MARQUEZ ROBLES</t>
+  </si>
+  <si>
+    <t>ENRIQUE GABRIEL BUENROSTRO AHUED</t>
+  </si>
+  <si>
+    <t>LUZ ELVIRA MANZANO OCHOA</t>
+  </si>
+  <si>
+    <t>YOLANDA MEZA ZEPEDA</t>
+  </si>
+  <si>
+    <t>DANIEL RUIZ BENAVIDES</t>
+  </si>
+  <si>
+    <t>JUAN ANTONIO GONZALEZ MORA</t>
+  </si>
+  <si>
+    <t>SERGIO QUEZADA MENDOZA</t>
+  </si>
+  <si>
+    <t>BONIFACIO VILLALVAZO LARIOS</t>
+  </si>
+  <si>
+    <t>MARIA OLIVIA REYNA FERNANDEZ</t>
+  </si>
+  <si>
+    <t>REYNALDO GONZALEZ GOMEZ</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE DIAZ BLANCO</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PES</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL I√ëIGUEZ BRAMBILA</t>
+  </si>
+  <si>
+    <t>ENRIQUE ROJAS ROMAN</t>
+  </si>
+  <si>
+    <t>MIGUEL DE JESUS ESPARZA PARTIDA</t>
+  </si>
+  <si>
+    <t>JUAN ALCARAZ VIRGEN</t>
+  </si>
+  <si>
+    <t>JOSE ALEJANDRO ARREOLA SOTO</t>
+  </si>
+  <si>
+    <t>SAUL PADILLA GUTIERREZ</t>
+  </si>
+  <si>
+    <t>SOMOS</t>
+  </si>
+  <si>
+    <t>https://www2.iepcjalisco.org.mx/educacion-civica/wp-content/uploads/2018/03/JALISCO-PROCESO-2017-2018-final.pdf</t>
+  </si>
+  <si>
+    <t>Magar</t>
   </si>
 </sst>
 </file>
@@ -5959,7 +6067,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5969,6 +6077,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5985,7 +6099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5995,6 +6109,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6010,10 +6125,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6304,17 +6415,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S1004"/>
+  <dimension ref="A1:S1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="H975" sqref="H975:I975"/>
+    <sheetView tabSelected="1" topLeftCell="A1007" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D1036" sqref="D1036"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
@@ -51495,7 +51606,970 @@
       </c>
     </row>
     <row r="1004" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I1004" s="2"/>
+      <c r="A1004">
+        <v>14003</v>
+      </c>
+      <c r="B1004">
+        <v>2021</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>1964</v>
+      </c>
+      <c r="H1004" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1004" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1005">
+        <v>14013</v>
+      </c>
+      <c r="B1005">
+        <v>2021</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>1965</v>
+      </c>
+      <c r="H1005" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1005" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1006">
+        <v>14019</v>
+      </c>
+      <c r="B1006">
+        <v>2021</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H1006" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1006" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1007">
+        <v>14025</v>
+      </c>
+      <c r="B1007">
+        <v>2021</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>1967</v>
+      </c>
+      <c r="H1007" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1007" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1008">
+        <v>14035</v>
+      </c>
+      <c r="B1008">
+        <v>2021</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>558</v>
+      </c>
+      <c r="H1008" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1008" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <v>14037</v>
+      </c>
+      <c r="B1009">
+        <v>2021</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>1968</v>
+      </c>
+      <c r="H1009" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1009" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1010">
+        <v>14040</v>
+      </c>
+      <c r="B1010">
+        <v>2021</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>1969</v>
+      </c>
+      <c r="H1010" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1010" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1011">
+        <v>14043</v>
+      </c>
+      <c r="B1011">
+        <v>2021</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>1970</v>
+      </c>
+      <c r="H1011" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1011" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1012">
+        <v>14049</v>
+      </c>
+      <c r="B1012">
+        <v>2021</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H1012" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1012" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1013">
+        <v>14066</v>
+      </c>
+      <c r="B1013">
+        <v>2021</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H1013" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1013" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1014">
+        <v>14070</v>
+      </c>
+      <c r="B1014">
+        <v>2021</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H1014" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1014" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1015">
+        <v>14072</v>
+      </c>
+      <c r="B1015">
+        <v>2021</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H1015" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1015" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1016">
+        <v>14075</v>
+      </c>
+      <c r="B1016">
+        <v>2021</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H1016" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1016" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1017">
+        <v>14078</v>
+      </c>
+      <c r="B1017">
+        <v>2021</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>1977</v>
+      </c>
+      <c r="H1017" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1017" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1018">
+        <v>14081</v>
+      </c>
+      <c r="B1018">
+        <v>2021</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H1018" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1018" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1019">
+        <v>14083</v>
+      </c>
+      <c r="B1019">
+        <v>2021</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H1019" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1019" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1020">
+        <v>14085</v>
+      </c>
+      <c r="B1020">
+        <v>2021</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H1020" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1020" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1021">
+        <v>14086</v>
+      </c>
+      <c r="B1021">
+        <v>2021</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>1980</v>
+      </c>
+      <c r="H1021" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1021" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1022">
+        <v>14089</v>
+      </c>
+      <c r="B1022">
+        <v>2021</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H1022" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1022" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1023">
+        <v>14090</v>
+      </c>
+      <c r="B1023">
+        <v>2021</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>1981</v>
+      </c>
+      <c r="H1023" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1023" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1024">
+        <v>14091</v>
+      </c>
+      <c r="B1024">
+        <v>2021</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H1024" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1024" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1025">
+        <v>14092</v>
+      </c>
+      <c r="B1025">
+        <v>2021</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1025" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1026">
+        <v>14098</v>
+      </c>
+      <c r="B1026">
+        <v>2021</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H1026" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1026" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1027">
+        <v>14100</v>
+      </c>
+      <c r="B1027">
+        <v>2021</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H1027" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1027" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1028">
+        <v>14101</v>
+      </c>
+      <c r="B1028">
+        <v>2021</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H1028" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1028" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1029">
+        <v>14105</v>
+      </c>
+      <c r="B1029">
+        <v>2021</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>1984</v>
+      </c>
+      <c r="H1029" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1029" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1030">
+        <v>14109</v>
+      </c>
+      <c r="B1030">
+        <v>2021</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H1030" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1030" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1031">
+        <v>14113</v>
+      </c>
+      <c r="B1031">
+        <v>2021</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H1031" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1031" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1032">
+        <v>14116</v>
+      </c>
+      <c r="B1032">
+        <v>2021</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>1986</v>
+      </c>
+      <c r="H1032" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1032" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1033">
+        <v>14117</v>
+      </c>
+      <c r="B1033">
+        <v>2021</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>1987</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1033" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <v>14122</v>
+      </c>
+      <c r="B1034">
+        <v>2021</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>1988</v>
+      </c>
+      <c r="H1034" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1034" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1035">
+        <v>14052</v>
+      </c>
+      <c r="B1035">
+        <v>2021</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1035" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1035" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1036">
+        <v>14015</v>
+      </c>
+      <c r="B1036">
+        <v>2021</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>1990</v>
+      </c>
+      <c r="H1036" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1036" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1037">
+        <v>14016</v>
+      </c>
+      <c r="B1037">
+        <v>2021</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1037" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1038">
+        <v>14018</v>
+      </c>
+      <c r="B1038">
+        <v>2021</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>1991</v>
+      </c>
+      <c r="H1038" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1038" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1039">
+        <v>14024</v>
+      </c>
+      <c r="B1039">
+        <v>2021</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>1992</v>
+      </c>
+      <c r="H1039" t="s">
+        <v>1973</v>
+      </c>
+      <c r="I1039" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1040">
+        <v>14029</v>
+      </c>
+      <c r="B1040">
+        <v>2021</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>467</v>
+      </c>
+      <c r="H1040" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1040" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1041">
+        <v>14054</v>
+      </c>
+      <c r="B1041">
+        <v>2021</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>844</v>
+      </c>
+      <c r="H1041" t="s">
+        <v>1973</v>
+      </c>
+      <c r="I1041" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1042">
+        <v>14065</v>
+      </c>
+      <c r="B1042">
+        <v>2021</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>1993</v>
+      </c>
+      <c r="H1042" t="s">
+        <v>1973</v>
+      </c>
+      <c r="I1042" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1043">
+        <v>14095</v>
+      </c>
+      <c r="B1043">
+        <v>2021</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H1043" t="s">
+        <v>1973</v>
+      </c>
+      <c r="I1043" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1044">
+        <v>14123</v>
+      </c>
+      <c r="B1044">
+        <v>2021</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1044" s="7" t="s">
+        <v>1995</v>
+      </c>
+      <c r="H1044" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1044" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1045">
+        <v>14052</v>
+      </c>
+      <c r="B1045">
+        <v>2024</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F1045" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="H1045" t="s">
+        <v>1996</v>
+      </c>
+      <c r="I1045" t="s">
+        <v>1998</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S1003" xr:uid="{00000000-0001-0000-0000-000000000000}">
